--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_12-59.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_12-59.xlsx
@@ -89,6 +89,12 @@
     <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
   </si>
   <si>
+    <t>EXEEDOGAST 40 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
   </si>
   <si>
@@ -156,9 +162,6 @@
   </si>
   <si>
     <t>TRYPSALIN PLUS 30 TABS</t>
-  </si>
-  <si>
-    <t>0:2</t>
   </si>
   <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
@@ -1071,17 +1074,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1103,11 +1106,11 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1123,17 +1126,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>15.300000000000001</v>
+        <v>15</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1141,7 +1144,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1149,13 +1152,13 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>85.560000000000002</v>
+        <v>15.300000000000001</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
@@ -1167,7 +1170,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1175,13 +1178,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>39</v>
+        <v>85.560000000000002</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1193,7 +1196,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1207,7 +1210,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1219,7 +1222,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1227,17 +1230,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1259,11 +1262,11 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>277.5</v>
+        <v>0</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1279,13 +1282,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>31</v>
+        <v>277.5</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
@@ -1297,7 +1300,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1305,17 +1308,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1331,17 +1334,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>240</v>
+        <v>32</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1349,7 +1352,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1363,7 +1366,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1375,7 +1378,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1383,17 +1386,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>56.399999999999999</v>
+        <v>75</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1409,13 +1412,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>23</v>
+        <v>56.399999999999999</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1427,7 +1430,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1435,17 +1438,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>65.75</v>
+        <v>23</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1453,7 +1456,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1467,7 +1470,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>59</v>
+        <v>65.75</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1479,7 +1482,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1487,17 +1490,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1513,17 +1516,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1531,7 +1534,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1539,17 +1542,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1557,7 +1560,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1565,13 +1568,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1591,13 +1594,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>2.5</v>
+        <v>35</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1609,7 +1612,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1617,13 +1620,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1635,7 +1638,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1643,13 +1646,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1661,7 +1664,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1669,13 +1672,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1695,13 +1698,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1713,7 +1716,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1721,13 +1724,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1739,7 +1742,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1747,13 +1750,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1773,13 +1776,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>19.199999999999999</v>
+        <v>35</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1799,13 +1802,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>20</v>
+        <v>19.199999999999999</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1825,51 +1828,77 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
         <v>15</v>
       </c>
     </row>
-    <row r="44" ht="25.5" customHeight="1">
-      <c r="K44" s="10">
-        <v>2009.21</v>
-      </c>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="11">
+    <row r="44" ht="24.75" customHeight="1">
+      <c r="A44" s="6">
+        <v>41</v>
+      </c>
+      <c t="s" r="B44" s="7">
         <v>70</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c t="s" r="F45" s="12">
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c t="s" r="H44" s="8">
+        <v>29</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="9">
+        <v>30</v>
+      </c>
+      <c r="M44" s="9"/>
+      <c t="s" r="N44" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" ht="26.25" customHeight="1">
+      <c r="K45" s="10">
+        <v>2093.21</v>
+      </c>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="11">
         <v>71</v>
       </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="13"/>
-      <c t="s" r="I45" s="14">
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c t="s" r="F46" s="12">
         <v>72</v>
       </c>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="13"/>
+      <c t="s" r="I46" s="14">
+        <v>73</v>
+      </c>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="131">
+  <mergeCells count="134">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1997,10 +2026,13 @@
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="I45:N45"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="I46:N46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
